--- a/Data/traits.xlsx
+++ b/Data/traits.xlsx
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:AF488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Z244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AG251" sqref="AG251"/>

--- a/Data/traits.xlsx
+++ b/Data/traits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MS_in_prep\Orquis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MS_in_prep\Orquis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1160,7 +1160,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
